--- a/example/Header.xlsx
+++ b/example/Header.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">«EastWestPart Ltd.»
 Russian Federation, 125040 Moscow, Leningrad Avenue, 1, office 8/1
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Конструкция и расположение органов управления аналогичны станкам ДИП300.</t>
+  </si>
+  <si>
+    <t>Представительство 1</t>
   </si>
 </sst>
 </file>
@@ -152,14 +155,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +588,7 @@
   <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -610,32 +613,37 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
@@ -644,17 +652,17 @@
     </row>
     <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -774,13 +782,13 @@
     <row r="204" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A23:I23"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A23:I23"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0" bottom="0.19685039370078741" header="0" footer="0"/>
